--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/incorrect_predictions_67.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
+          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Data Recorder File Index is 1</t>
+          <t>Incompatible firmware version</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>3-8</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/incorrect_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-80_remove/rem2/67/incorrect_predictions_67.xlsx
@@ -462,21 +462,21 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Incompatible firmware version Go to Profile &gt; Settings to update firmware .</t>
+          <t>RTH Altitude 98FT Data Recorder File Index is 1 .</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Incompatible firmware version</t>
+          <t>Data Recorder File Index is 1</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-8</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
